--- a/tracking/compare/gwanak-gu.xlsx
+++ b/tracking/compare/gwanak-gu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C9377F-9989-450D-B9F7-F55F05F70DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A303C3D-97F6-4DCE-A40D-32FE0C285071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFE407B3-DAC0-4FF9-8514-EF284B201FAF}"/>
   </bookViews>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AB3AF3-890B-49B7-8F58-97832A60B211}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -816,8 +816,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>1923</v>
+      <c r="A22" s="5">
+        <v>8085</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -838,8 +838,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>2591</v>
+      <c r="A24" s="5">
+        <v>2986</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>

--- a/tracking/compare/gwanak-gu.xlsx
+++ b/tracking/compare/gwanak-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A303C3D-97F6-4DCE-A40D-32FE0C285071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ABBE9F-0641-4305-A3AE-EF8778BF3767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFE407B3-DAC0-4FF9-8514-EF284B201FAF}"/>
   </bookViews>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AB3AF3-890B-49B7-8F58-97832A60B211}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="40" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>113059</v>
+        <v>3333</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>23</v>
@@ -1368,5 +1368,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>